--- a/PropositionsFormation/Fiches/Fiche_Sequence.xlsx
+++ b/PropositionsFormation/Fiches/Fiche_Sequence.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{046FE3E5-21EF-4697-94B8-D39C8B35E79D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{695D675A-82D7-4855-A4B9-8DF1AB8FD151}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -716,27 +716,12 @@
   </cellStyleXfs>
   <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -746,29 +731,8 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -777,68 +741,155 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -846,62 +897,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1186,7 +1186,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1240,161 +1242,161 @@
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="39"/>
-      <c r="D6" s="38" t="s">
+      <c r="C6" s="36"/>
+      <c r="D6" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="40"/>
-      <c r="F6" s="41" t="s">
+      <c r="E6" s="37"/>
+      <c r="F6" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="G6" s="40"/>
+      <c r="G6" s="37"/>
     </row>
     <row r="7" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="63" t="s">
+      <c r="A7" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="35" t="s">
+      <c r="E7" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="36" t="s">
+      <c r="F7" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="G7" s="37"/>
+      <c r="G7" s="42"/>
     </row>
     <row r="8" spans="1:7" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="29" t="s">
+      <c r="E8" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="26" t="s">
+      <c r="F8" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="G8" s="22"/>
+      <c r="G8" s="26"/>
     </row>
     <row r="9" spans="1:7" ht="58" x14ac:dyDescent="0.35">
-      <c r="A9" s="63" t="s">
+      <c r="A9" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="E9" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="26" t="s">
+      <c r="F9" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="G9" s="22"/>
+      <c r="G9" s="26"/>
     </row>
     <row r="10" spans="1:7" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="63" t="s">
+      <c r="A10" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="31" t="s">
+      <c r="E10" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="F10" s="27" t="s">
+      <c r="F10" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="G10" s="24"/>
+      <c r="G10" s="40"/>
     </row>
     <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="62" t="s">
+      <c r="B13" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="62"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="62"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
     </row>
     <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="3" t="s">
+      <c r="C15" s="59"/>
+      <c r="D15" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="3" t="s">
+      <c r="E15" s="59"/>
+      <c r="F15" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="4"/>
+      <c r="G15" s="59"/>
     </row>
     <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="6" t="s">
+      <c r="C16" s="29"/>
+      <c r="D16" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="6" t="s">
+      <c r="E16" s="29"/>
+      <c r="F16" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="G16" s="7"/>
+      <c r="G16" s="29"/>
     </row>
     <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="42" t="s">
+      <c r="A17" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="43"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="46"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="54"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="50" t="s">
+      <c r="A18" s="22" t="s">
         <v>9</v>
       </c>
       <c r="B18" s="51" t="s">
@@ -1411,115 +1413,97 @@
       <c r="G18" s="52"/>
     </row>
     <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="55" t="s">
+      <c r="B19" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="56"/>
-      <c r="D19" s="55" t="s">
+      <c r="C19" s="50"/>
+      <c r="D19" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="56"/>
-      <c r="F19" s="55" t="s">
+      <c r="E19" s="50"/>
+      <c r="F19" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="G19" s="56"/>
-    </row>
-    <row r="20" spans="1:7" s="19" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="57" t="s">
+      <c r="G19" s="50"/>
+    </row>
+    <row r="20" spans="1:7" s="7" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="58" t="s">
+      <c r="B20" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="59"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="60" t="s">
+      <c r="C20" s="63"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="G20" s="61"/>
+      <c r="G20" s="48"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="47" t="s">
+      <c r="A21" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="48" t="s">
+      <c r="B21" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="49"/>
-      <c r="D21" s="48" t="s">
+      <c r="C21" s="46"/>
+      <c r="D21" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="E21" s="49"/>
-      <c r="F21" s="48" t="s">
+      <c r="E21" s="46"/>
+      <c r="F21" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="G21" s="49"/>
+      <c r="G21" s="46"/>
     </row>
     <row r="22" spans="1:7" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="53" t="s">
+      <c r="B22" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="54"/>
-      <c r="D22" s="53" t="s">
+      <c r="C22" s="44"/>
+      <c r="D22" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="54"/>
-      <c r="F22" s="53" t="s">
+      <c r="E22" s="44"/>
+      <c r="F22" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="G22" s="54"/>
+      <c r="G22" s="44"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="15"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="34"/>
     </row>
     <row r="24" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="1"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F17:G17"/>
     <mergeCell ref="B24:G24"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="F15:G15"/>
@@ -1536,6 +1520,24 @@
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F17:G17"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B22:C22"/>
   </mergeCells>
